--- a/hostSystem/agentData.xlsx
+++ b/hostSystem/agentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SWEP\zips\2019 - Jared McGrath\SWEP-2019\AlgorithmSimulation\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9831D4-2EEE-42D2-91F0-A425FE624E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA4140-07C2-467C-96C8-AC3316CBE579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,16 +415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -461,21 +466,21 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E2">
         <v>-0.75</v>
       </c>
       <c r="F2">
+        <v>-0.4</v>
+      </c>
+      <c r="G2">
         <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -484,21 +489,21 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E3">
         <v>-0.75</v>
       </c>
       <c r="F3">
+        <v>-0.4</v>
+      </c>
+      <c r="G3">
         <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -507,21 +512,21 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.47445217782020721</v>
       </c>
       <c r="E4">
-        <v>-0.75</v>
+        <v>-0.69571087786794039</v>
       </c>
       <c r="F4">
-        <v>0.55000000000000004</v>
+        <v>-0.36251829714673456</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.35314787143341819</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1.5</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -530,1304 +535,867 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.22499999999999998</v>
+        <v>-0.44010467879905446</v>
       </c>
       <c r="E5">
-        <v>0.875</v>
+        <v>-0.64651484844490759</v>
       </c>
       <c r="F5">
-        <v>0.55000000000000004</v>
+        <v>-0.39143674047478738</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.30057674213717617</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.46250000000000002</v>
+        <v>0.46125808560079268</v>
       </c>
       <c r="C6">
-        <v>0.9375</v>
+        <v>0.95418445603635715</v>
       </c>
       <c r="D6">
-        <v>0.22500000000000001</v>
+        <v>-0.44010467879905446</v>
       </c>
       <c r="E6">
-        <v>0.875</v>
+        <v>-0.64651484844490759</v>
       </c>
       <c r="F6">
-        <v>0.55000000000000004</v>
+        <v>-0.41989753652968992</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.24775645164269627</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.40625</v>
+        <v>0.46125808560079268</v>
       </c>
       <c r="C7">
-        <v>0.84375</v>
+        <v>0.95418445603635715</v>
       </c>
       <c r="D7">
-        <v>0.1875</v>
+        <v>-0.40592956388865536</v>
       </c>
       <c r="E7">
-        <v>0.8125</v>
+        <v>-0.59719891267500647</v>
       </c>
       <c r="F7">
-        <v>0.58750000000000002</v>
+        <v>-0.41989753652968992</v>
       </c>
       <c r="G7">
-        <v>0.8125</v>
+        <v>0.24775645164269627</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B8">
-        <v>0.38750000000000001</v>
+        <v>0.42557446491767348</v>
       </c>
       <c r="C8">
-        <v>0.8125</v>
+        <v>0.90594879272648587</v>
       </c>
       <c r="D8">
-        <v>0.19687499999999999</v>
+        <v>-0.40592956388865536</v>
       </c>
       <c r="E8">
-        <v>0.828125</v>
+        <v>-0.59719891267500647</v>
       </c>
       <c r="F8">
-        <v>0.58750000000000002</v>
+        <v>-0.4477822559023894</v>
       </c>
       <c r="G8">
-        <v>0.8125</v>
+        <v>0.19462978766399536</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.38750000000000001</v>
+        <v>0.38792076486210986</v>
       </c>
       <c r="C9">
-        <v>0.8125</v>
+        <v>0.85923478120825247</v>
       </c>
       <c r="D9">
-        <v>0.19687499999999999</v>
+        <v>-0.37181703342801475</v>
       </c>
       <c r="E9">
-        <v>0.828125</v>
+        <v>-0.54783966566320663</v>
       </c>
       <c r="F9">
-        <v>0.58750000000000002</v>
+        <v>-0.4477822559023894</v>
       </c>
       <c r="G9">
-        <v>0.8125</v>
+        <v>0.19462978766399536</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
-        <v>0.38750000000000001</v>
+        <v>0.35026706480654624</v>
       </c>
       <c r="C10">
-        <v>0.8125</v>
+        <v>0.81252076969001907</v>
       </c>
       <c r="D10">
-        <v>0.19218750000000001</v>
+        <v>-0.34471356225625027</v>
       </c>
       <c r="E10">
-        <v>0.8203125</v>
+        <v>-0.49431021722179885</v>
       </c>
       <c r="F10">
-        <v>0.58750000000000002</v>
+        <v>-0.4477822559023894</v>
       </c>
       <c r="G10">
-        <v>0.8125</v>
+        <v>0.19462978766399536</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="B11">
-        <v>0.38984375000000004</v>
+        <v>0.31475491666362898</v>
       </c>
       <c r="C11">
-        <v>0.81640625</v>
+        <v>0.76415872533418672</v>
       </c>
       <c r="D11">
-        <v>0.1875</v>
+        <v>-0.34471356225625027</v>
       </c>
       <c r="E11">
-        <v>0.8125</v>
+        <v>-0.49431021722179885</v>
       </c>
       <c r="F11">
-        <v>0.58750000000000002</v>
+        <v>-0.4477822559023894</v>
       </c>
       <c r="G11">
-        <v>0.8125</v>
+        <v>0.19462978766399536</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0.388671875</v>
+        <v>0.28074494157276786</v>
       </c>
       <c r="C12">
-        <v>0.814453125</v>
+        <v>0.71472875877220121</v>
       </c>
       <c r="D12">
-        <v>0.1875</v>
+        <v>-0.31070358716538915</v>
       </c>
       <c r="E12">
-        <v>0.8125</v>
+        <v>-0.44488025065981335</v>
       </c>
       <c r="F12">
-        <v>0.58750000000000002</v>
+        <v>-0.39816466310408871</v>
       </c>
       <c r="G12">
-        <v>0.8125</v>
+        <v>0.22836544365142236</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B13">
-        <v>0.38808593749999998</v>
+        <v>0.24565670446822191</v>
       </c>
       <c r="C13">
-        <v>0.8134765625</v>
+        <v>0.66605827883933877</v>
       </c>
       <c r="D13">
-        <v>0.18808593749999999</v>
+        <v>-0.31070358716538915</v>
       </c>
       <c r="E13">
-        <v>0.8134765625</v>
+        <v>-0.44488025065981335</v>
       </c>
       <c r="F13">
-        <v>0.58808593750000004</v>
+        <v>-0.36129021771116404</v>
       </c>
       <c r="G13">
-        <v>0.8134765625</v>
+        <v>0.27569698997059744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="B14">
-        <v>0.38808593749999998</v>
+        <v>0.21064193887766139</v>
       </c>
       <c r="C14">
-        <v>0.8134765625</v>
+        <v>0.61733491493003856</v>
       </c>
       <c r="D14">
-        <v>0.18808593749999999</v>
+        <v>-0.31070358716538915</v>
       </c>
       <c r="E14">
-        <v>0.8134765625</v>
+        <v>-0.44488025065981335</v>
       </c>
       <c r="F14">
-        <v>0.58808593750000004</v>
+        <v>-0.36129021771116404</v>
       </c>
       <c r="G14">
-        <v>0.8134765625</v>
+        <v>0.27569698997059744</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="B15">
-        <v>0.38808593749999998</v>
+        <v>0.17676843277024382</v>
       </c>
       <c r="C15">
-        <v>0.8134765625</v>
+        <v>0.56781132879180796</v>
       </c>
       <c r="D15">
-        <v>0.18808593749999999</v>
+        <v>-0.27683008105797158</v>
       </c>
       <c r="E15">
-        <v>0.8134765625</v>
+        <v>-0.39535666452158275</v>
       </c>
       <c r="F15">
-        <v>0.58808593750000004</v>
+        <v>-0.32392410172424091</v>
       </c>
       <c r="G15">
-        <v>0.8134765625</v>
+        <v>0.32264135465957589</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>7</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B16">
-        <v>0.38808593749999998</v>
+        <v>0.14169999411818435</v>
       </c>
       <c r="C16">
-        <v>0.8134765625</v>
+        <v>0.51912658158586322</v>
       </c>
       <c r="D16">
-        <v>0.18808593749999999</v>
+        <v>-0.24577026384642642</v>
       </c>
       <c r="E16">
-        <v>0.8134765625</v>
+        <v>-0.34402161066181358</v>
       </c>
       <c r="F16">
-        <v>0.58808593750000004</v>
+        <v>-0.32392410172424091</v>
       </c>
       <c r="G16">
-        <v>0.8134765625</v>
+        <v>0.32264135465957589</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.38808593749999998</v>
+        <v>0.10638323268704267</v>
       </c>
       <c r="C17">
-        <v>0.8134765625</v>
+        <v>0.47062167088585449</v>
       </c>
       <c r="D17">
-        <v>0.18808593750000002</v>
+        <v>-0.21288378694745619</v>
       </c>
       <c r="E17">
-        <v>0.8134765625</v>
+        <v>-0.29383715453072157</v>
       </c>
       <c r="F17">
-        <v>0.58808593750000004</v>
+        <v>-0.32392410172424091</v>
       </c>
       <c r="G17">
-        <v>0.8134765625</v>
+        <v>0.32264135465957589</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B18">
-        <v>0.38808593749999998</v>
+        <v>7.0878187573348905E-2</v>
       </c>
       <c r="C18">
-        <v>0.8134765625</v>
+        <v>0.42225441159328581</v>
       </c>
       <c r="D18">
-        <v>0.18808593749999999</v>
+        <v>-0.18212511681867724</v>
       </c>
       <c r="E18">
-        <v>0.8134765625</v>
+        <v>-0.24232109672435442</v>
       </c>
       <c r="F18">
-        <v>0.58808593750000004</v>
+        <v>-0.29786263484198416</v>
       </c>
       <c r="G18">
-        <v>0.8134765625</v>
+        <v>0.3522374179048316</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>8.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="B19">
-        <v>0.38808593749999998</v>
+        <v>5.7130023090282291E-2</v>
       </c>
       <c r="C19">
-        <v>0.8134765625</v>
+        <v>0.40825101285559495</v>
       </c>
       <c r="D19">
-        <v>0.18808593750000002</v>
+        <v>-0.14895645960694737</v>
       </c>
       <c r="E19">
-        <v>0.8134765625</v>
+        <v>-0.19232269496219045</v>
       </c>
       <c r="F19">
-        <v>0.58808593750000004</v>
+        <v>-0.29786263484198416</v>
       </c>
       <c r="G19">
-        <v>0.8134765625</v>
+        <v>0.3522374179048316</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="B20">
-        <v>0.38808593750000003</v>
+        <v>5.7130023090282291E-2</v>
       </c>
       <c r="C20">
-        <v>0.8134765625</v>
+        <v>0.40825101285559495</v>
       </c>
       <c r="D20">
-        <v>0.18808593750000002</v>
+        <v>-0.11607335975315033</v>
       </c>
       <c r="E20">
-        <v>0.8134765625</v>
+        <v>-0.14213602597524519</v>
       </c>
       <c r="F20">
-        <v>0.58808593750000004</v>
+        <v>-0.3280813997949768</v>
       </c>
       <c r="G20">
-        <v>0.8134765625</v>
+        <v>0.30332539533142716</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>9.5</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="B21">
-        <v>0.38808593750000003</v>
+        <v>2.1839220930347396E-2</v>
       </c>
       <c r="C21">
-        <v>0.8134765625</v>
+        <v>0.35972721165547938</v>
       </c>
       <c r="D21">
-        <v>0.18808593750000002</v>
+        <v>-9.8474967761515625E-2</v>
       </c>
       <c r="E21">
-        <v>0.8134765625</v>
+        <v>-0.11304374171391071</v>
       </c>
       <c r="F21">
-        <v>0.58808593750000004</v>
+        <v>-0.31103911521792499</v>
       </c>
       <c r="G21">
-        <v>0.8134765625</v>
+        <v>0.32431051883626072</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>0.38808593750000003</v>
+        <v>1.5263553700692916E-2</v>
       </c>
       <c r="C22">
-        <v>0.8134765625</v>
+        <v>0.35264387309163564</v>
       </c>
       <c r="D22">
-        <v>0.18808593750000002</v>
+        <v>-7.4412130023143022E-2</v>
       </c>
       <c r="E22">
-        <v>0.8134765625</v>
+        <v>-7.848955104003269E-2</v>
       </c>
       <c r="F22">
-        <v>0.58808593750000004</v>
+        <v>-0.31103911521792499</v>
       </c>
       <c r="G22">
-        <v>0.8134765625</v>
+        <v>0.32431051883626072</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="B23">
-        <v>0.38808593750000003</v>
+        <v>1.5263553700692916E-2</v>
       </c>
       <c r="C23">
-        <v>0.8134765625</v>
+        <v>0.35264387309163564</v>
       </c>
       <c r="D23">
-        <v>0.18808593750000002</v>
+        <v>-5.6476993278375832E-2</v>
       </c>
       <c r="E23">
-        <v>0.8134765625</v>
+        <v>-5.2262866213699022E-2</v>
       </c>
       <c r="F23">
-        <v>0.58808593750000004</v>
+        <v>-0.31103911521792499</v>
       </c>
       <c r="G23">
-        <v>0.8134765625</v>
+        <v>0.32431051883626072</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.38808593750000003</v>
+        <v>1.0003019916969332E-2</v>
       </c>
       <c r="C24">
-        <v>0.8134765625</v>
+        <v>0.34697720224056067</v>
       </c>
       <c r="D24">
-        <v>0.18808593750000002</v>
+        <v>-4.7389417666285669E-2</v>
       </c>
       <c r="E24">
-        <v>0.8134765625</v>
+        <v>-3.6948189203707071E-2</v>
       </c>
       <c r="F24">
-        <v>0.58808593750000004</v>
+        <v>-0.32012669083001516</v>
       </c>
       <c r="G24">
-        <v>0.8134765625</v>
+        <v>0.30899584182626877</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>11.5</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="B25">
-        <v>0.38808593750000003</v>
+        <v>1.0003019916969332E-2</v>
       </c>
       <c r="C25">
-        <v>0.8134765625</v>
+        <v>0.34697720224056067</v>
       </c>
       <c r="D25">
-        <v>0.18808593750000002</v>
+        <v>-4.193687229903157E-2</v>
       </c>
       <c r="E25">
-        <v>0.8134765625</v>
+        <v>-2.7759382997711898E-2</v>
       </c>
       <c r="F25">
-        <v>0.58808593750000004</v>
+        <v>-0.32012669083001516</v>
       </c>
       <c r="G25">
-        <v>0.8134765625</v>
+        <v>0.30899584182626877</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>12</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="B26">
-        <v>0.38808593750000003</v>
+        <v>1.0003019916969332E-2</v>
       </c>
       <c r="C26">
-        <v>0.8134765625</v>
+        <v>0.34697720224056067</v>
       </c>
       <c r="D26">
-        <v>0.18808593750000002</v>
+        <v>-3.757483600522829E-2</v>
       </c>
       <c r="E26">
-        <v>0.8134765625</v>
+        <v>-2.0408338032915758E-2</v>
       </c>
       <c r="F26">
-        <v>0.58808593750000004</v>
+        <v>-0.32448872712381843</v>
       </c>
       <c r="G26">
-        <v>0.8134765625</v>
+        <v>0.30164479686147261</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>0.38808593750000003</v>
+        <v>1.0003019916969332E-2</v>
       </c>
       <c r="C27">
-        <v>0.8134765625</v>
+        <v>0.34697720224056067</v>
       </c>
       <c r="D27">
-        <v>0.18808593750000002</v>
+        <v>-3.4957614228946318E-2</v>
       </c>
       <c r="E27">
-        <v>0.8134765625</v>
+        <v>-1.5997711054038084E-2</v>
       </c>
       <c r="F27">
-        <v>0.58808593750000004</v>
+        <v>-0.32020759949194283</v>
       </c>
       <c r="G27">
-        <v>0.8134765625</v>
+        <v>0.30630065095841252</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="B28">
-        <v>0.38808593750000003</v>
+        <v>3.960896035186897E-3</v>
       </c>
       <c r="C28">
-        <v>0.8134765625</v>
+        <v>0.33884189198413106</v>
       </c>
       <c r="D28">
-        <v>0.18808593750000002</v>
+        <v>-3.4957614228946318E-2</v>
       </c>
       <c r="E28">
-        <v>0.8134765625</v>
+        <v>-1.5997711054038084E-2</v>
       </c>
       <c r="F28">
-        <v>0.58808593750000004</v>
+        <v>-0.31711547855756111</v>
       </c>
       <c r="G28">
-        <v>0.8134765625</v>
+        <v>0.30997628881235201</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="B29">
-        <v>0.38808593750000003</v>
+        <v>-2.5437888336270805E-4</v>
       </c>
       <c r="C29">
-        <v>0.8134765625</v>
+        <v>0.33306877134977525</v>
       </c>
       <c r="D29">
-        <v>0.18808593750000002</v>
+        <v>-3.4957614228946318E-2</v>
       </c>
       <c r="E29">
-        <v>0.8134765625</v>
+        <v>-1.5997711054038084E-2</v>
       </c>
       <c r="F29">
-        <v>0.58808593750000004</v>
+        <v>-0.32068390569183813</v>
       </c>
       <c r="G29">
-        <v>0.8134765625</v>
+        <v>0.30478148883907397</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>14</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="B30">
-        <v>0.38808593750000003</v>
+        <v>-4.340284245057795E-3</v>
       </c>
       <c r="C30">
-        <v>0.8134765625</v>
+        <v>0.32741131484763497</v>
       </c>
       <c r="D30">
-        <v>0.18808593750000002</v>
+        <v>-3.4957614228946318E-2</v>
       </c>
       <c r="E30">
-        <v>0.8134765625</v>
+        <v>-1.5997711054038084E-2</v>
       </c>
       <c r="F30">
-        <v>0.58808593750000004</v>
+        <v>-0.32353864739925975</v>
       </c>
       <c r="G30">
-        <v>0.8134765625</v>
+        <v>0.30062564886045157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>14.5</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="B31">
-        <v>0.38808593750000003</v>
+        <v>-4.340284245057795E-3</v>
       </c>
       <c r="C31">
-        <v>0.8134765625</v>
+        <v>0.32741131484763497</v>
       </c>
       <c r="D31">
-        <v>0.18808593750000002</v>
+        <v>-2.65503548662313E-2</v>
       </c>
       <c r="E31">
-        <v>0.8134765625</v>
+        <v>-3.9912338908055407E-3</v>
       </c>
       <c r="F31">
-        <v>0.58808593750000004</v>
+        <v>-0.32353864739925975</v>
       </c>
       <c r="G31">
-        <v>0.8134765625</v>
+        <v>0.30062564886045157</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>0.38808593750000003</v>
+        <v>-8.7822983692924968E-3</v>
       </c>
       <c r="C32">
-        <v>0.8134765625</v>
+        <v>0.32113080509994685</v>
       </c>
       <c r="D32">
-        <v>0.18808593750000002</v>
+        <v>-2.65503548662313E-2</v>
       </c>
       <c r="E32">
-        <v>0.8134765625</v>
+        <v>-3.9912338908055407E-3</v>
       </c>
       <c r="F32">
-        <v>0.58808593750000004</v>
+        <v>-0.32414098889265408</v>
       </c>
       <c r="G32">
-        <v>0.8134765625</v>
+        <v>0.29970227231020014</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="B33">
-        <v>0.38808593750000003</v>
+        <v>-8.7822983692924968E-3</v>
       </c>
       <c r="C33">
-        <v>0.8134765625</v>
+        <v>0.32113080509994685</v>
       </c>
       <c r="D33">
-        <v>0.18808593750000002</v>
+        <v>-2.2996743566843537E-2</v>
       </c>
       <c r="E33">
-        <v>0.8134765625</v>
+        <v>1.0331739073449362E-3</v>
       </c>
       <c r="F33">
-        <v>0.58808593750000004</v>
+        <v>-0.32414098889265408</v>
       </c>
       <c r="G33">
-        <v>0.8134765625</v>
+        <v>0.29970227231020014</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="B34">
-        <v>0.38808593750000003</v>
+        <v>-8.7822983692924968E-3</v>
       </c>
       <c r="C34">
-        <v>0.8134765625</v>
+        <v>0.32113080509994685</v>
       </c>
       <c r="D34">
-        <v>0.18808593750000002</v>
+        <v>-2.0153854527333329E-2</v>
       </c>
       <c r="E34">
-        <v>0.8134765625</v>
+        <v>5.0527001458653244E-3</v>
       </c>
       <c r="F34">
-        <v>0.58808593750000004</v>
+        <v>-0.32084040172281963</v>
       </c>
       <c r="G34">
-        <v>0.8134765625</v>
+        <v>0.30425415918757842</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>16.5</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="B35">
-        <v>0.38808593750000003</v>
+        <v>-1.1193919039997927E-2</v>
       </c>
       <c r="C35">
-        <v>0.8134765625</v>
+        <v>0.31775547591747316</v>
       </c>
       <c r="D35">
-        <v>0.18808593750000002</v>
+        <v>-2.0153854527333329E-2</v>
       </c>
       <c r="E35">
-        <v>0.8134765625</v>
+        <v>5.0527001458653244E-3</v>
       </c>
       <c r="F35">
-        <v>0.58808593750000004</v>
+        <v>-0.32084040172281963</v>
       </c>
       <c r="G35">
-        <v>0.8134765625</v>
+        <v>0.30425415918757842</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>17</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="B36">
-        <v>0.38808593750000003</v>
+        <v>-1.1193919039997927E-2</v>
       </c>
       <c r="C36">
-        <v>0.8134765625</v>
+        <v>0.31775547591747316</v>
       </c>
       <c r="D36">
-        <v>0.18808593750000002</v>
+        <v>-1.8499176868963511E-2</v>
       </c>
       <c r="E36">
-        <v>0.8134765625</v>
+        <v>7.4335471085295096E-3</v>
       </c>
       <c r="F36">
-        <v>0.58808593750000004</v>
+        <v>-0.31891110518625532</v>
       </c>
       <c r="G36">
-        <v>0.8134765625</v>
+        <v>0.30695442253355737</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>0.38808593750000003</v>
+        <v>-1.2654970605791044E-2</v>
       </c>
       <c r="C37">
-        <v>0.8134765625</v>
+        <v>0.31569109015568442</v>
       </c>
       <c r="D37">
-        <v>0.18808593750000002</v>
+        <v>-1.7038125303170393E-2</v>
       </c>
       <c r="E37">
-        <v>0.8134765625</v>
+        <v>9.4979328703182434E-3</v>
       </c>
       <c r="F37">
-        <v>0.58808593750000004</v>
+        <v>-0.31882871952279696</v>
       </c>
       <c r="G37">
-        <v>0.8134765625</v>
+        <v>0.30705024744855181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="B38">
-        <v>0.38808593750000003</v>
+        <v>-1.2654970605791044E-2</v>
       </c>
       <c r="C38">
-        <v>0.8134765625</v>
+        <v>0.31569109015568442</v>
       </c>
       <c r="D38">
-        <v>0.18808593750000002</v>
+        <v>-1.6161494363694524E-2</v>
       </c>
       <c r="E38">
-        <v>0.8134765625</v>
+        <v>1.0736564327391479E-2</v>
       </c>
       <c r="F38">
-        <v>0.58808593750000004</v>
+        <v>-0.31882871952279696</v>
       </c>
       <c r="G38">
-        <v>0.8134765625</v>
+        <v>0.30705024744855181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="B39">
-        <v>0.38808593750000003</v>
+        <v>-1.3889720389192228E-2</v>
       </c>
       <c r="C39">
-        <v>0.8134765625</v>
+        <v>0.31396292161425787</v>
       </c>
       <c r="D39">
-        <v>0.18808593750000002</v>
+        <v>-1.6161494363694524E-2</v>
       </c>
       <c r="E39">
-        <v>0.8134765625</v>
+        <v>1.0736564327391479E-2</v>
       </c>
       <c r="F39">
-        <v>0.58808593750000004</v>
+        <v>-0.31829527449097644</v>
       </c>
       <c r="G39">
-        <v>0.8134765625</v>
+        <v>0.30778751082431977</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>19</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B40">
-        <v>0.38808593750000003</v>
+        <v>-1.4770831209549074E-2</v>
       </c>
       <c r="C40">
-        <v>0.8134765625</v>
+        <v>0.31272783945627025</v>
       </c>
       <c r="D40">
-        <v>0.18808593750000002</v>
+        <v>-1.6588250389150912E-2</v>
       </c>
       <c r="E40">
-        <v>0.8134765625</v>
+        <v>1.0146753626777133E-2</v>
       </c>
       <c r="F40">
-        <v>0.58808593750000004</v>
+        <v>-0.31829527449097644</v>
       </c>
       <c r="G40">
-        <v>0.8134765625</v>
+        <v>0.30778751082431977</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>19.5</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="B41">
-        <v>0.38808593750000003</v>
+        <v>-1.5134315045469441E-2</v>
       </c>
       <c r="C41">
-        <v>0.8134765625</v>
+        <v>0.31221162229037164</v>
       </c>
       <c r="D41">
-        <v>0.18808593750000002</v>
+        <v>-1.6566171373595652E-2</v>
       </c>
       <c r="E41">
-        <v>0.8134765625</v>
+        <v>1.0191122232184286E-2</v>
       </c>
       <c r="F41">
-        <v>0.58808593750000004</v>
+        <v>-0.31829527449097644</v>
       </c>
       <c r="G41">
-        <v>0.8134765625</v>
+        <v>0.30778751082431977</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>0.38808593750000003</v>
+        <v>-1.5134315045469441E-2</v>
       </c>
       <c r="C42">
-        <v>0.8134765625</v>
+        <v>0.31221162229037164</v>
       </c>
       <c r="D42">
-        <v>0.18808593750000002</v>
+        <v>-1.6279800107970411E-2</v>
       </c>
       <c r="E42">
-        <v>0.8134765625</v>
+        <v>1.0595222243821763E-2</v>
       </c>
       <c r="F42">
-        <v>0.58808593750000004</v>
+        <v>-0.31766308260187504</v>
       </c>
       <c r="G42">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>20.5</v>
-      </c>
-      <c r="B43">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C43">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D43">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E43">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F43">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G43">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C44">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D44">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E44">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F44">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G44">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>21.5</v>
-      </c>
-      <c r="B45">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C45">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D45">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E45">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F45">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G45">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C46">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D46">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E46">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F46">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G46">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>22.5</v>
-      </c>
-      <c r="B47">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C47">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D47">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E47">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F47">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G47">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C48">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D48">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E48">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F48">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G48">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>23.5</v>
-      </c>
-      <c r="B49">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C49">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D49">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E49">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F49">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G49">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>24</v>
-      </c>
-      <c r="B50">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C50">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D50">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E50">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F50">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G50">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>24.5</v>
-      </c>
-      <c r="B51">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C51">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D51">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E51">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F51">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G51">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C52">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D52">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E52">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F52">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G52">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>25.5</v>
-      </c>
-      <c r="B53">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C53">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D53">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E53">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F53">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G53">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C54">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D54">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E54">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F54">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G54">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>26.5</v>
-      </c>
-      <c r="B55">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C55">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D55">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E55">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F55">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G55">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>27</v>
-      </c>
-      <c r="B56">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C56">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D56">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E56">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F56">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G56">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>27.5</v>
-      </c>
-      <c r="B57">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C57">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D57">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E57">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F57">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G57">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C58">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D58">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E58">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F58">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G58">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>28.5</v>
-      </c>
-      <c r="B59">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C59">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D59">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E59">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F59">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G59">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C60">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D60">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E60">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F60">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G60">
-        <v>0.8134765625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>29.5</v>
-      </c>
-      <c r="B61">
-        <v>0.38808593750000003</v>
-      </c>
-      <c r="C61">
-        <v>0.8134765625</v>
-      </c>
-      <c r="D61">
-        <v>0.18808593750000002</v>
-      </c>
-      <c r="E61">
-        <v>0.8134765625</v>
-      </c>
-      <c r="F61">
-        <v>0.58808593750000004</v>
-      </c>
-      <c r="G61">
-        <v>0.8134765625</v>
+        <v>0.30867233311753012</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1877,7 +1445,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1891,7 +1459,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1905,7 +1473,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1.5</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1919,7 +1487,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1933,7 +1501,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1947,7 +1515,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1961,7 +1529,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1975,7 +1543,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1989,7 +1557,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2003,7 +1571,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2017,7 +1585,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2031,7 +1599,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2045,7 +1613,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2059,7 +1627,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>7</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2073,7 +1641,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2087,7 +1655,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2101,7 +1669,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>8.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2115,7 +1683,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2129,7 +1697,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9.5</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2143,7 +1711,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2157,7 +1725,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2171,7 +1739,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2185,7 +1753,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>11.5</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2199,7 +1767,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>12</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2213,7 +1781,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2227,7 +1795,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2241,7 +1809,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2255,7 +1823,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>14</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2269,7 +1837,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>14.5</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2283,7 +1851,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2297,7 +1865,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2311,7 +1879,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2325,7 +1893,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>16.5</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2339,7 +1907,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2353,7 +1921,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2367,7 +1935,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2381,7 +1949,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2395,7 +1963,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>19</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2409,7 +1977,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>19.5</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2423,7 +1991,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2437,7 +2005,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>20.5</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2451,7 +2019,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2465,7 +2033,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>21.5</v>
+        <v>8.6</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2479,7 +2047,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>22</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2493,7 +2061,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2507,7 +2075,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>23</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2521,7 +2089,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>23.5</v>
+        <v>9.4</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2535,7 +2103,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>24</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2549,7 +2117,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>24.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2563,7 +2131,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2577,7 +2145,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>25.5</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2591,7 +2159,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2605,7 +2173,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>26.5</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2619,7 +2187,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>27</v>
+        <v>10.8</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2633,7 +2201,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2647,7 +2215,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>28</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2661,7 +2229,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>28.5</v>
+        <v>11.4</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2675,7 +2243,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>29</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2689,7 +2257,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>29.5</v>
+        <v>11.8</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2698,6 +2266,566 @@
         <v>0</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>12.4</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>12.8</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>13.4</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>13.8</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>14.4</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>14.8</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>15.200000000000001</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>15.4</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>15.8</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>16.2</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>16.8</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>17.2</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>17.400000000000002</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>17.8</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>18.2</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>18.8</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>19.400000000000002</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>19.8</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
         <v>0</v>
       </c>
     </row>
@@ -2708,7 +2836,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2737,839 +2865,1399 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.80173423138704625</v>
+        <v>1.0073342157507716</v>
       </c>
       <c r="C2">
-        <v>1.1035296904831233</v>
+        <v>1.0338708279513882</v>
       </c>
       <c r="D2">
-        <v>0.31001792062897127</v>
+        <v>0.32360813064912669</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
-        <v>0.80173423138704625</v>
+        <v>1.0073342157507716</v>
       </c>
       <c r="C3">
-        <v>1.1035296904831233</v>
+        <v>1.0338708279513882</v>
       </c>
       <c r="D3">
-        <v>0.31001792062897127</v>
+        <v>0.32360813064912669</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
-        <v>0.80173423138704625</v>
+        <v>1.0073342157507716</v>
       </c>
       <c r="C4">
-        <v>1.1035296904831233</v>
+        <v>0.97406100929821593</v>
       </c>
       <c r="D4">
-        <v>0.60092521257733156</v>
+        <v>0.26674494726748615</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1.5</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B5">
-        <v>0.80173423138704625</v>
+        <v>1.0073342157507716</v>
       </c>
       <c r="C5">
-        <v>0.62505555308663918</v>
+        <v>0.91607367958541508</v>
       </c>
       <c r="D5">
-        <v>0.60092521257733156</v>
+        <v>0.27140057027112857</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.73013031561343744</v>
+        <v>0.94734969525875312</v>
       </c>
       <c r="C6">
-        <v>0.62505555308663918</v>
+        <v>0.91607367958541508</v>
       </c>
       <c r="D6">
-        <v>0.60092521257733156</v>
+        <v>0.28824575848296274</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.62328236199797749</v>
+        <v>0.94734969525875312</v>
       </c>
       <c r="C7">
-        <v>0.56325566525730075</v>
+        <v>0.85830407557585764</v>
       </c>
       <c r="D7">
-        <v>0.67373853319452581</v>
+        <v>0.28824575848296274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B8">
-        <v>0.58786926929188754</v>
+        <v>0.88740508013608566</v>
       </c>
       <c r="C8">
-        <v>0.57846367707440749</v>
+        <v>0.85830407557585764</v>
       </c>
       <c r="D8">
-        <v>0.67373853319452581</v>
+        <v>0.31522015947749693</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.58786926929188754</v>
+        <v>0.82740535211652655</v>
       </c>
       <c r="C9">
-        <v>0.57846367707440749</v>
+        <v>0.80083981381005565</v>
       </c>
       <c r="D9">
-        <v>0.67373853319452581</v>
+        <v>0.31522015947749693</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="B10">
-        <v>0.58786926929188754</v>
+        <v>0.76740566662672871</v>
       </c>
       <c r="C10">
-        <v>0.57083761023336965</v>
+        <v>0.7417342722318131</v>
       </c>
       <c r="D10">
-        <v>0.67373853319452581</v>
+        <v>0.31522015947749693</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="B11">
-        <v>0.59228906982224716</v>
+        <v>0.70748189665131322</v>
       </c>
       <c r="C11">
-        <v>0.56325566525730075</v>
+        <v>0.7417342722318131</v>
       </c>
       <c r="D11">
-        <v>0.67373853319452581</v>
+        <v>0.31522015947749693</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0.59007891168559734</v>
+        <v>0.6477087812757788</v>
       </c>
       <c r="C12">
-        <v>0.56325566525730075</v>
+        <v>0.68491206060969356</v>
       </c>
       <c r="D12">
-        <v>0.67373853319452581</v>
+        <v>0.26508959732717852</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B13">
-        <v>0.58897402565804891</v>
+        <v>0.58786586041713429</v>
       </c>
       <c r="C13">
-        <v>0.56420093456721143</v>
+        <v>0.68491206060969356</v>
       </c>
       <c r="D13">
-        <v>0.67487636736900303</v>
+        <v>0.2354759440040835</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>6</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="B14">
-        <v>0.58897402565804891</v>
+        <v>0.52806631502025092</v>
       </c>
       <c r="C14">
-        <v>0.56420093456721143</v>
+        <v>0.68491206060969356</v>
       </c>
       <c r="D14">
-        <v>0.67487636736900303</v>
+        <v>0.2354759440040835</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="B15">
-        <v>0.58897402565804891</v>
+        <v>0.46847164170260858</v>
       </c>
       <c r="C15">
-        <v>0.56420093456721143</v>
+        <v>0.62862061255284196</v>
       </c>
       <c r="D15">
-        <v>0.67487636736900303</v>
+        <v>0.21807217954390934</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>7</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B16">
-        <v>0.58897402565804891</v>
+        <v>0.40880965172312328</v>
       </c>
       <c r="C16">
-        <v>0.56420093456721143</v>
+        <v>0.57185086139375962</v>
       </c>
       <c r="D16">
-        <v>0.67487636736900303</v>
+        <v>0.21807217954390934</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.58897402565804891</v>
+        <v>0.34922367644901881</v>
       </c>
       <c r="C17">
-        <v>0.56420093456721143</v>
+        <v>0.51666471345288101</v>
       </c>
       <c r="D17">
-        <v>0.67487636736900303</v>
+        <v>0.21807217954390934</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="B18">
-        <v>0.58897402565804891</v>
+        <v>0.28977347382918422</v>
       </c>
       <c r="C18">
-        <v>0.56420093456721143</v>
+        <v>0.46157383491525233</v>
       </c>
       <c r="D18">
-        <v>0.67487636736900303</v>
+        <v>0.21318846039644107</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>8.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="B19">
-        <v>0.58897402565804891</v>
+        <v>0.27014968414711937</v>
       </c>
       <c r="C19">
-        <v>0.56420093456721143</v>
+        <v>0.40928764945957186</v>
       </c>
       <c r="D19">
-        <v>0.67487636736900303</v>
+        <v>0.21318846039644107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="B20">
-        <v>0.58897402565804891</v>
+        <v>0.27014968414711937</v>
       </c>
       <c r="C20">
-        <v>0.56420093456721143</v>
+        <v>0.35921759274160686</v>
       </c>
       <c r="D20">
-        <v>0.67487636736900303</v>
+        <v>0.21315849653331037</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9.5</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="B21">
-        <v>0.58897402565804891</v>
+        <v>0.21105648800548882</v>
       </c>
       <c r="C21">
-        <v>0.56420093456721143</v>
+        <v>0.33154797397183056</v>
       </c>
       <c r="D21">
-        <v>0.67487636736900303</v>
+        <v>0.20776559827152205</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>0.58897402565804891</v>
+        <v>0.20142203331150685</v>
       </c>
       <c r="C22">
-        <v>0.56420093456721143</v>
+        <v>0.30097990140613257</v>
       </c>
       <c r="D22">
-        <v>0.67487636736900303</v>
+        <v>0.20776559827152205</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="B23">
-        <v>0.58897402565804891</v>
+        <v>0.20142203331150685</v>
       </c>
       <c r="C23">
-        <v>0.56420093456721143</v>
+        <v>0.27969624713587943</v>
       </c>
       <c r="D23">
-        <v>0.67487636736900303</v>
+        <v>0.20776559827152205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.58897402565804891</v>
+        <v>0.19371666382800073</v>
       </c>
       <c r="C24">
-        <v>0.56420093456721143</v>
+        <v>0.26778135065447528</v>
       </c>
       <c r="D24">
-        <v>0.67487636736900303</v>
+        <v>0.20836610806591285</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>11.5</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="B25">
-        <v>0.58897402565804891</v>
+        <v>0.19371666382800073</v>
       </c>
       <c r="C25">
-        <v>0.56420093456721143</v>
+        <v>0.26095479846925196</v>
       </c>
       <c r="D25">
-        <v>0.67487636736900303</v>
+        <v>0.20836610806591285</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>12</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="B26">
-        <v>0.58897402565804891</v>
+        <v>0.19371666382800073</v>
       </c>
       <c r="C26">
-        <v>0.56420093456721143</v>
+        <v>0.25568388229187172</v>
       </c>
       <c r="D26">
-        <v>0.67487636736900303</v>
+        <v>0.20919289468478802</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>0.58897402565804891</v>
+        <v>0.19371666382800073</v>
       </c>
       <c r="C27">
-        <v>0.56420093456721143</v>
+        <v>0.2526073925471462</v>
       </c>
       <c r="D27">
-        <v>0.67487636736900303</v>
+        <v>0.20725887795781334</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="B28">
-        <v>0.58897402565804891</v>
+        <v>0.18378381620607684</v>
       </c>
       <c r="C28">
-        <v>0.56420093456721143</v>
+        <v>0.2526073925471462</v>
       </c>
       <c r="D28">
-        <v>0.67487636736900303</v>
+        <v>0.20611298476367207</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="B29">
-        <v>0.58897402565804891</v>
+        <v>0.17680344479719481</v>
       </c>
       <c r="C29">
-        <v>0.56420093456721143</v>
+        <v>0.2526073925471462</v>
       </c>
       <c r="D29">
-        <v>0.67487636736900303</v>
+        <v>0.20703733684901934</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>14</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="B30">
-        <v>0.58897402565804891</v>
+        <v>0.17001054030211393</v>
       </c>
       <c r="C30">
-        <v>0.56420093456721143</v>
+        <v>0.2526073925471462</v>
       </c>
       <c r="D30">
-        <v>0.67487636736900303</v>
+        <v>0.20791145276279033</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>14.5</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="B31">
-        <v>0.58897402565804891</v>
+        <v>0.17001054030211393</v>
       </c>
       <c r="C31">
-        <v>0.56420093456721143</v>
+        <v>0.2451377440720561</v>
       </c>
       <c r="D31">
-        <v>0.67487636736900303</v>
+        <v>0.20791145276279033</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>0.58897402565804891</v>
+        <v>0.16255988597812576</v>
       </c>
       <c r="C32">
-        <v>0.56420093456721143</v>
+        <v>0.2451377440720561</v>
       </c>
       <c r="D32">
-        <v>0.67487636736900303</v>
+        <v>0.20809246316153018</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="B33">
-        <v>0.58897402565804891</v>
+        <v>0.16255988597812576</v>
       </c>
       <c r="C33">
-        <v>0.56420093456721143</v>
+        <v>0.24222296802921708</v>
       </c>
       <c r="D33">
-        <v>0.67487636736900303</v>
+        <v>0.20809246316153018</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="B34">
-        <v>0.58897402565804891</v>
+        <v>0.16255988597812576</v>
       </c>
       <c r="C34">
-        <v>0.56420093456721143</v>
+        <v>0.23997930171051138</v>
       </c>
       <c r="D34">
-        <v>0.67487636736900303</v>
+        <v>0.2069552355996829</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>16.5</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="B35">
-        <v>0.58897402565804891</v>
+        <v>0.15854647230280766</v>
       </c>
       <c r="C35">
-        <v>0.56420093456721143</v>
+        <v>0.23997930171051138</v>
       </c>
       <c r="D35">
-        <v>0.67487636736900303</v>
+        <v>0.2069552355996829</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="B36">
-        <v>0.58897402565804891</v>
+        <v>0.15854647230280766</v>
       </c>
       <c r="C36">
-        <v>0.56420093456721143</v>
+        <v>0.23867421689598792</v>
       </c>
       <c r="D36">
-        <v>0.67487636736900303</v>
+        <v>0.20637584225236832</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>0.58897402565804891</v>
+        <v>0.15610606547451189</v>
       </c>
       <c r="C37">
-        <v>0.56420093456721143</v>
+        <v>0.23757832324006573</v>
       </c>
       <c r="D37">
-        <v>0.67487636736900303</v>
+        <v>0.20634371803506354</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="B38">
-        <v>0.58897402565804891</v>
+        <v>0.15610606547451189</v>
       </c>
       <c r="C38">
-        <v>0.56420093456721143</v>
+        <v>0.23693131261399647</v>
       </c>
       <c r="D38">
-        <v>0.67487636736900303</v>
+        <v>0.20634371803506354</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="B39">
-        <v>0.58897402565804891</v>
+        <v>0.15405628159856533</v>
       </c>
       <c r="C39">
-        <v>0.56420093456721143</v>
+        <v>0.23693131261399647</v>
       </c>
       <c r="D39">
-        <v>0.67487636736900303</v>
+        <v>0.20618905867384607</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>19</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B40">
-        <v>0.58897402565804891</v>
+        <v>0.15259362970834145</v>
       </c>
       <c r="C40">
-        <v>0.56420093456721143</v>
+        <v>0.23723382742275093</v>
       </c>
       <c r="D40">
-        <v>0.67487636736900303</v>
+        <v>0.20618905867384607</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>19.5</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="B41">
-        <v>0.58897402565804891</v>
+        <v>0.15198633645611218</v>
       </c>
       <c r="C41">
-        <v>0.56420093456721143</v>
+        <v>0.23720607193250243</v>
       </c>
       <c r="D41">
-        <v>0.67487636736900303</v>
+        <v>0.20618905867384607</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>0.58897402565804891</v>
+        <v>0.15198633645611218</v>
       </c>
       <c r="C42">
-        <v>0.56420093456721143</v>
+        <v>0.23699571693821558</v>
       </c>
       <c r="D42">
-        <v>0.67487636736900303</v>
+        <v>0.20601577397003121</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>20.5</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="B43">
-        <v>0.58897402565804891</v>
+        <v>0.15198633645611218</v>
       </c>
       <c r="C43">
-        <v>0.56420093456721143</v>
+        <v>0.23719386176822668</v>
       </c>
       <c r="D43">
-        <v>0.67487636736900303</v>
+        <v>0.20580787731639402</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="B44">
-        <v>0.58897402565804891</v>
+        <v>0.15151361619987411</v>
       </c>
       <c r="C44">
-        <v>0.56420093456721143</v>
+        <v>0.23723957791616584</v>
       </c>
       <c r="D44">
-        <v>0.67487636736900303</v>
+        <v>0.20579041522906708</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>21.5</v>
+        <v>8.6</v>
       </c>
       <c r="B45">
-        <v>0.58897402565804891</v>
+        <v>0.15151361619987411</v>
       </c>
       <c r="C45">
-        <v>0.56420093456721143</v>
+        <v>0.23706393547110183</v>
       </c>
       <c r="D45">
-        <v>0.67487636736900303</v>
+        <v>0.20570881822409054</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>22</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B46">
-        <v>0.58897402565804891</v>
+        <v>0.15115578496804258</v>
       </c>
       <c r="C46">
-        <v>0.56420093456721143</v>
+        <v>0.23706393547110183</v>
       </c>
       <c r="D46">
-        <v>0.67487636736900303</v>
+        <v>0.20565472638684265</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>0.58897402565804891</v>
+        <v>0.15069324320850433</v>
       </c>
       <c r="C47">
-        <v>0.56420093456721143</v>
+        <v>0.23704900895669576</v>
       </c>
       <c r="D47">
-        <v>0.67487636736900303</v>
+        <v>0.20565472638684265</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>23</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="B48">
-        <v>0.58897402565804891</v>
+        <v>0.15054453389354269</v>
       </c>
       <c r="C48">
-        <v>0.56420093456721143</v>
+        <v>0.23698370545522598</v>
       </c>
       <c r="D48">
-        <v>0.67487636736900303</v>
+        <v>0.20565472638684265</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>23.5</v>
+        <v>9.4</v>
       </c>
       <c r="B49">
-        <v>0.58897402565804891</v>
+        <v>0.15045215649119523</v>
       </c>
       <c r="C49">
-        <v>0.56420093456721143</v>
+        <v>0.23694456309131467</v>
       </c>
       <c r="D49">
-        <v>0.67487636736900303</v>
+        <v>0.20565472638684265</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>24</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="B50">
-        <v>0.58897402565804891</v>
+        <v>0.15037825777197686</v>
       </c>
       <c r="C50">
-        <v>0.56420093456721143</v>
+        <v>0.23694456309131467</v>
       </c>
       <c r="D50">
-        <v>0.67487636736900303</v>
+        <v>0.20565136108191046</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>24.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B51">
-        <v>0.58897402565804891</v>
+        <v>0.15037825777197686</v>
       </c>
       <c r="C51">
-        <v>0.56420093456721143</v>
+        <v>0.23692775529152207</v>
       </c>
       <c r="D51">
-        <v>0.67487636736900303</v>
+        <v>0.20564040473950221</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>0.58897402565804891</v>
+        <v>0.15034776392370761</v>
       </c>
       <c r="C52">
-        <v>0.56420093456721143</v>
+        <v>0.23692775529152207</v>
       </c>
       <c r="D52">
-        <v>0.67487636736900303</v>
+        <v>0.20563433963226851</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>25.5</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="B53">
-        <v>0.58897402565804891</v>
+        <v>0.15034776392370761</v>
       </c>
       <c r="C53">
-        <v>0.56420093456721143</v>
+        <v>0.23691700115471281</v>
       </c>
       <c r="D53">
-        <v>0.67487636736900303</v>
+        <v>0.20563038308767914</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>26</v>
+        <v>10.4</v>
       </c>
       <c r="B54">
-        <v>0.58897402565804891</v>
+        <v>0.15034776392370761</v>
       </c>
       <c r="C54">
-        <v>0.56420093456721143</v>
+        <v>0.23691700115471281</v>
       </c>
       <c r="D54">
-        <v>0.67487636736900303</v>
+        <v>0.20562722042234949</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>26.5</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="B55">
-        <v>0.58897402565804891</v>
+        <v>0.15033089352683493</v>
       </c>
       <c r="C55">
-        <v>0.56420093456721143</v>
+        <v>0.23691700115471281</v>
       </c>
       <c r="D55">
-        <v>0.67487636736900303</v>
+        <v>0.20562469193518168</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>27</v>
+        <v>10.8</v>
       </c>
       <c r="B56">
-        <v>0.58897402565804891</v>
+        <v>0.15032077136048685</v>
       </c>
       <c r="C56">
-        <v>0.56420093456721143</v>
+        <v>0.23691700115471281</v>
       </c>
       <c r="D56">
-        <v>0.67487636736900303</v>
+        <v>0.20562551255177056</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>0.58897402565804891</v>
+        <v>0.15030665426933809</v>
       </c>
       <c r="C57">
-        <v>0.56420093456721143</v>
+        <v>0.23691482985267542</v>
       </c>
       <c r="D57">
-        <v>0.67487636736900303</v>
+        <v>0.20562413505743332</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>28</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="B58">
-        <v>0.58897402565804891</v>
+        <v>0.15030203646029969</v>
       </c>
       <c r="C58">
-        <v>0.56420093456721143</v>
+        <v>0.23691482985267542</v>
       </c>
       <c r="D58">
-        <v>0.67487636736900303</v>
+        <v>0.20562493566587947</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>28.5</v>
+        <v>11.4</v>
       </c>
       <c r="B59">
-        <v>0.58897402565804891</v>
+        <v>0.150297199684094</v>
       </c>
       <c r="C59">
-        <v>0.56420093456721143</v>
+        <v>0.23691278818840364</v>
       </c>
       <c r="D59">
-        <v>0.67487636736900303</v>
+        <v>0.20562421940209835</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>29</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="B60">
-        <v>0.58897402565804891</v>
+        <v>0.15028677211851493</v>
       </c>
       <c r="C60">
-        <v>0.56420093456721143</v>
+        <v>0.23691073108123409</v>
       </c>
       <c r="D60">
-        <v>0.67487636736900303</v>
+        <v>0.20562487505031921</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>29.5</v>
+        <v>11.8</v>
       </c>
       <c r="B61">
-        <v>0.58897402565804891</v>
+        <v>0.15028051560759281</v>
       </c>
       <c r="C61">
-        <v>0.56420093456721143</v>
+        <v>0.23690873398470658</v>
       </c>
       <c r="D61">
-        <v>0.67487636736900303</v>
+        <v>0.20562526849234211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0.15027947087496185</v>
+      </c>
+      <c r="C62">
+        <v>0.23690814604486091</v>
+      </c>
+      <c r="D62">
+        <v>0.20562526849234211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="B63">
+        <v>0.15027947087496185</v>
+      </c>
+      <c r="C63">
+        <v>0.2369076756976469</v>
+      </c>
+      <c r="D63">
+        <v>0.20562526849234211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>12.4</v>
+      </c>
+      <c r="B64">
+        <v>0.15027863508927608</v>
+      </c>
+      <c r="C64">
+        <v>0.23690693325905604</v>
+      </c>
+      <c r="D64">
+        <v>0.20562526849234211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="B65">
+        <v>0.15027796646099564</v>
+      </c>
+      <c r="C65">
+        <v>0.23690693325905604</v>
+      </c>
+      <c r="D65">
+        <v>0.20562523916309411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>12.8</v>
+      </c>
+      <c r="B66">
+        <v>0.15027746393790761</v>
+      </c>
+      <c r="C66">
+        <v>0.23690669244627105</v>
+      </c>
+      <c r="D66">
+        <v>0.20562516580321527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>0.1502763291176184</v>
+      </c>
+      <c r="C67">
+        <v>0.23690669244627105</v>
+      </c>
+      <c r="D67">
+        <v>0.20562524093036216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="B68">
+        <v>0.15027554186729214</v>
+      </c>
+      <c r="C68">
+        <v>0.23690623371519812</v>
+      </c>
+      <c r="D68">
+        <v>0.20562524093036216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>13.4</v>
+      </c>
+      <c r="B69">
+        <v>0.15027529933048522</v>
+      </c>
+      <c r="C69">
+        <v>0.23690612603503683</v>
+      </c>
+      <c r="D69">
+        <v>0.20562526788444876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="B70">
+        <v>0.15027529933048522</v>
+      </c>
+      <c r="C70">
+        <v>0.23690600275771653</v>
+      </c>
+      <c r="D70">
+        <v>0.20562526558917665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>13.8</v>
+      </c>
+      <c r="B71">
+        <v>0.1502752092022753</v>
+      </c>
+      <c r="C71">
+        <v>0.23690600275771653</v>
+      </c>
+      <c r="D71">
+        <v>0.20562526375295964</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>0.1502752092022753</v>
+      </c>
+      <c r="C72">
+        <v>0.23690593464405335</v>
+      </c>
+      <c r="D72">
+        <v>0.20562527631528638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="B73">
+        <v>0.15027515873441974</v>
+      </c>
+      <c r="C73">
+        <v>0.23690593464405335</v>
+      </c>
+      <c r="D73">
+        <v>0.20562528089446566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>14.4</v>
+      </c>
+      <c r="B74">
+        <v>0.15027515873441974</v>
+      </c>
+      <c r="C74">
+        <v>0.23690590917986323</v>
+      </c>
+      <c r="D74">
+        <v>0.20562528005562694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="B75">
+        <v>0.15027513450984953</v>
+      </c>
+      <c r="C75">
+        <v>0.23690590917986323</v>
+      </c>
+      <c r="D75">
+        <v>0.20562527938455605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>14.8</v>
+      </c>
+      <c r="B76">
+        <v>0.15027512084005462</v>
+      </c>
+      <c r="C76">
+        <v>0.23690590917986323</v>
+      </c>
+      <c r="D76">
+        <v>0.20562528171677749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>0.15027512167113005</v>
+      </c>
+      <c r="C77">
+        <v>0.23690590371522594</v>
+      </c>
+      <c r="D77">
+        <v>0.20562528181948134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>15.200000000000001</v>
+      </c>
+      <c r="B78">
+        <v>0.15027511214679098</v>
+      </c>
+      <c r="C78">
+        <v>0.23690590371522594</v>
+      </c>
+      <c r="D78">
+        <v>0.20562528331210386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>15.4</v>
+      </c>
+      <c r="B79">
+        <v>0.15027511214679098</v>
+      </c>
+      <c r="C79">
+        <v>0.23690590010974172</v>
+      </c>
+      <c r="D79">
+        <v>0.20562528450620229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="B80">
+        <v>0.15027511214679098</v>
+      </c>
+      <c r="C80">
+        <v>0.23690589722535452</v>
+      </c>
+      <c r="D80">
+        <v>0.20562528430435598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>15.8</v>
+      </c>
+      <c r="B81">
+        <v>0.15027511103937213</v>
+      </c>
+      <c r="C81">
+        <v>0.23690589491784489</v>
+      </c>
+      <c r="D81">
+        <v>0.20562528414287892</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>0.15027511103937213</v>
+      </c>
+      <c r="C82">
+        <v>0.23690589316941982</v>
+      </c>
+      <c r="D82">
+        <v>0.20562528460614538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>16.2</v>
+      </c>
+      <c r="B83">
+        <v>0.15027510972081273</v>
+      </c>
+      <c r="C83">
+        <v>0.23690589177067981</v>
+      </c>
+      <c r="D83">
+        <v>0.20562528467518848</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="B84">
+        <v>0.15027510746612982</v>
+      </c>
+      <c r="C84">
+        <v>0.23690589076846444</v>
+      </c>
+      <c r="D84">
+        <v>0.20562528450974824</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.15027510563863869</v>
+      </c>
+      <c r="C85">
+        <v>0.23690589076846444</v>
+      </c>
+      <c r="D85">
+        <v>0.20562528463386795</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>16.8</v>
+      </c>
+      <c r="B86">
+        <v>0.15027510436651834</v>
+      </c>
+      <c r="C86">
+        <v>0.23690589001653564</v>
+      </c>
+      <c r="D86">
+        <v>0.20562528463386795</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>0.15027510394120894</v>
+      </c>
+      <c r="C87">
+        <v>0.23690588985401637</v>
+      </c>
+      <c r="D87">
+        <v>0.20562528462916277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>17.2</v>
+      </c>
+      <c r="B88">
+        <v>0.1502751037042542</v>
+      </c>
+      <c r="C88">
+        <v>0.23690588985401637</v>
+      </c>
+      <c r="D88">
+        <v>0.20562528467961108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>17.400000000000002</v>
+      </c>
+      <c r="B89">
+        <v>0.15027510355114282</v>
+      </c>
+      <c r="C89">
+        <v>0.23690588985401637</v>
+      </c>
+      <c r="D89">
+        <v>0.20562528471157393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B90">
+        <v>0.15027510355114282</v>
+      </c>
+      <c r="C90">
+        <v>0.23690588978331018</v>
+      </c>
+      <c r="D90">
+        <v>0.2056252847401667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>17.8</v>
+      </c>
+      <c r="B91">
+        <v>0.15027510353247736</v>
+      </c>
+      <c r="C91">
+        <v>0.23690588978331018</v>
+      </c>
+      <c r="D91">
+        <v>0.20562528473747063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>0.15027510352127812</v>
+      </c>
+      <c r="C92">
+        <v>0.23690588978331018</v>
+      </c>
+      <c r="D92">
+        <v>0.20562528473747063</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>18.2</v>
+      </c>
+      <c r="B93">
+        <v>0.15027510352127812</v>
+      </c>
+      <c r="C93">
+        <v>0.23690588967942186</v>
+      </c>
+      <c r="D93">
+        <v>0.20562528473747063</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="B94">
+        <v>0.15027510351231874</v>
+      </c>
+      <c r="C94">
+        <v>0.23690588964627504</v>
+      </c>
+      <c r="D94">
+        <v>0.20562528474674063</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B95">
+        <v>0.15027510349204309</v>
+      </c>
+      <c r="C95">
+        <v>0.23690588962054973</v>
+      </c>
+      <c r="D95">
+        <v>0.20562528474674063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>18.8</v>
+      </c>
+      <c r="B96">
+        <v>0.15027510347582257</v>
+      </c>
+      <c r="C96">
+        <v>0.23690588959019609</v>
+      </c>
+      <c r="D96">
+        <v>0.20562528474442918</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>0.15027510345050774</v>
+      </c>
+      <c r="C97">
+        <v>0.23690588957892864</v>
+      </c>
+      <c r="D97">
+        <v>0.20562528474304231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="B98">
+        <v>0.15027510345050774</v>
+      </c>
+      <c r="C98">
+        <v>0.23690588957216815</v>
+      </c>
+      <c r="D98">
+        <v>0.20562528474480141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>19.400000000000002</v>
+      </c>
+      <c r="B99">
+        <v>0.15027510343835659</v>
+      </c>
+      <c r="C99">
+        <v>0.23690588956907563</v>
+      </c>
+      <c r="D99">
+        <v>0.20562528474503419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B100">
+        <v>0.15027510343522693</v>
+      </c>
+      <c r="C100">
+        <v>0.23690588956907563</v>
+      </c>
+      <c r="D100">
+        <v>0.20562528474458772</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>19.8</v>
+      </c>
+      <c r="B101">
+        <v>0.15027510342564118</v>
+      </c>
+      <c r="C101">
+        <v>0.23690588956647907</v>
+      </c>
+      <c r="D101">
+        <v>0.20562528474541203</v>
       </c>
     </row>
   </sheetData>
